--- a/data/trans_dic/P42-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P42-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,24; 93,23</t>
+          <t>86,99; 93,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,35; 98,11</t>
+          <t>93,41; 98,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,2; 96,85</t>
+          <t>91,4; 96,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,97; 93,12</t>
+          <t>87,01; 93,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,24; 93,23</t>
+          <t>86,99; 93,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,35; 98,11</t>
+          <t>93,41; 98,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,2; 96,85</t>
+          <t>91,4; 96,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,97; 93,12</t>
+          <t>87,01; 93,37</t>
         </is>
       </c>
     </row>
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,49; 88,79</t>
+          <t>81,72; 89,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,89; 96,25</t>
+          <t>91,08; 96,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,48</t>
+          <t>93,25; 97,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 93,33</t>
+          <t>86,63; 93,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,49; 88,79</t>
+          <t>81,72; 89,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,89; 96,25</t>
+          <t>91,08; 96,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,48</t>
+          <t>93,25; 97,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 93,33</t>
+          <t>86,63; 93,32</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,67; 89,37</t>
+          <t>77,58; 89,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,81; 95,6</t>
+          <t>88,53; 95,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,09; 96,82</t>
+          <t>89,04; 96,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,33; 90,77</t>
+          <t>80,0; 90,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,67; 89,37</t>
+          <t>77,58; 89,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,81; 95,6</t>
+          <t>88,53; 95,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,09; 96,82</t>
+          <t>89,04; 96,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,33; 90,77</t>
+          <t>80,0; 90,87</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,97; 82,63</t>
+          <t>76,87; 83,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,15; 91,65</t>
+          <t>87,37; 91,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,88; 91,99</t>
+          <t>87,83; 91,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,87; 88,77</t>
+          <t>26,75; 88,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,97; 82,63</t>
+          <t>76,87; 83,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87,15; 91,65</t>
+          <t>87,37; 91,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87,88; 91,99</t>
+          <t>87,83; 91,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,87; 88,77</t>
+          <t>26,75; 88,77</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1305,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,89; 87,26</t>
+          <t>80,95; 87,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,62; 90,32</t>
+          <t>85,42; 90,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,01; 89,94</t>
+          <t>85,03; 89,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,81; 91,39</t>
+          <t>85,13; 91,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,89; 87,26</t>
+          <t>80,95; 87,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>85,62; 90,32</t>
+          <t>85,42; 90,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,01; 89,94</t>
+          <t>85,03; 89,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>84,81; 91,39</t>
+          <t>85,13; 91,23</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,55; 73,63</t>
+          <t>68,08; 73,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,3; 81,21</t>
+          <t>76,25; 81,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,4; 80,65</t>
+          <t>75,56; 80,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,38; 77,91</t>
+          <t>69,69; 77,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,55; 73,63</t>
+          <t>68,08; 73,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>76,3; 81,21</t>
+          <t>76,25; 81,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>75,4; 80,65</t>
+          <t>75,56; 80,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>69,38; 77,91</t>
+          <t>69,69; 77,58</t>
         </is>
       </c>
     </row>
@@ -1584,42 +1585,42 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>77,7; 80,43</t>
+          <t>77,56; 80,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,06; 88,29</t>
+          <t>86,01; 88,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>85,98; 88,32</t>
+          <t>86,13; 88,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,71; 85,34</t>
+          <t>59,93; 85,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77,7; 80,43</t>
+          <t>77,56; 80,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,06; 88,29</t>
+          <t>86,01; 88,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>85,98; 88,32</t>
+          <t>86,13; 88,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,71; 85,34</t>
+          <t>59,93; 85,32</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido alguna vez al ginecólogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>275983</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>303002</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>327276</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>277514</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>275983</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>303002</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>327276</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>277514</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>265757; 285801</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>293735; 308924</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>315715; 333716</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>266957; 286462</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>265757; 285801</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>293735; 308924</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>315715; 333716</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>266957; 286462</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>315209</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>315195</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>353348</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>249452</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>315209</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>315195</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>353348</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>249452</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>301507; 328495</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>304757; 322301</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>343923; 359988</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>239222; 257702</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>301507; 328495</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>304757; 322301</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>343923; 359988</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>239222; 257702</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>141052</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>239910</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>155576</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>102148</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>141052</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>239910</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>155576</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>102148</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>130165; 149745</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>229359; 247187</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>147909; 160752</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>94996; 107903</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>130165; 149745</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>229359; 247187</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>147909; 160752</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94996; 107903</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>568575</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>683397</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>741854</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>489849</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>568575</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>683397</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>741854</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>489849</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>546048; 590533</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>666200; 699874</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>722667; 756942</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>203767; 676202</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>546048; 590533</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>666200; 699874</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>722667; 756942</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>203767; 676202</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>474826</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>665085</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>639538</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>599860</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>474826</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>665085</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>639538</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>599860</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>456329; 490953</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>644993; 682143</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>621283; 656786</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>580870; 622497</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>456329; 490953</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>644993; 682143</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>621283; 656786</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>580870; 622497</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>884639</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>870451</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>836918</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>454503</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>884639</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>870451</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>836918</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>454503</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>848820; 914034</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>842023; 898162</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>808745; 862568</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>429933; 478605</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>848820; 914034</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>842023; 898162</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>808745; 862568</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>429933; 478605</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2871</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2660283</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3077041</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3054509</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2173326</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2660283</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3077041</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3054509</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2173326</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2608201; 2703420</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3036310; 3114759</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3018221; 3097426</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1655621; 2357236</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2608201; 2703420</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3036310; 3114759</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3018221; 3097426</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1655621; 2357236</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P42-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P42-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
